--- a/app_demo1/common/tmpfile/interface_wl.xlsx
+++ b/app_demo1/common/tmpfile/interface_wl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="8385"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>接口</t>
   </si>
@@ -75,13 +75,21 @@
     <t>{"type":"yunda","postid":"3835494398576"}</t>
   </si>
   <si>
-    <t>sddasdasdas</t>
+    <t>{"type" : "object",
+ "properties" :
+     {"price" :{"type" : "number"},
+       "name" :{"type" : "string"},
+     },
+ }</t>
   </si>
   <si>
     <t>昨夜西2ww22树</t>
   </si>
   <si>
     <t>{"type":"韵达","postid":"3835494398576"}</t>
+  </si>
+  <si>
+    <t>{"type" : "object","properties" :{"price" :{"type" : "number"},"name" :{"type" : "string"}}}'</t>
   </si>
   <si>
     <t>{"type":"11111","postid":"3835494398577"}</t>
@@ -101,10 +109,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -130,14 +138,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,6 +182,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -158,8 +205,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,54 +229,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,23 +245,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -259,7 +267,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,73 +282,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,109 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,6 +487,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,6 +531,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -522,21 +560,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -544,21 +567,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,149 +596,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,6 +748,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -749,7 +760,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1102,8 +1116,8 @@
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1115,23 +1129,23 @@
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="9" style="2"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="43.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="40.875" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -1158,10 +1172,10 @@
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1178,7 +1192,7 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1190,10 +1204,10 @@
       <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1210,7 +1224,7 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1222,11 +1236,11 @@
       <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
+      <c r="J4" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:10">
@@ -1242,7 +1256,7 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1254,11 +1268,11 @@
       <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:10">
@@ -1274,7 +1288,7 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1286,11 +1300,11 @@
       <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>19</v>
+      <c r="I6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:10">
@@ -1298,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -1306,7 +1320,7 @@
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1318,11 +1332,11 @@
       <c r="H7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>19</v>
+      <c r="I7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
